--- a/resources/wheels/223 - Соловей.xlsx
+++ b/resources/wheels/223 - Соловей.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="934"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="934" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Колесо1" sheetId="1" r:id="rId1"/>
-    <sheet name="Колесо 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Колесо 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Колесо 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Колесо 5" sheetId="2" r:id="rId5"/>
-    <sheet name="Колесо 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Колесо 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Колесо 8" sheetId="8" r:id="rId8"/>
-    <sheet name="Колесо 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Колесо 10" sheetId="11" r:id="rId10"/>
+    <sheet name="1" sheetId="12" r:id="rId1"/>
+    <sheet name="2" sheetId="13" r:id="rId2"/>
+    <sheet name="3" sheetId="1" r:id="rId3"/>
+    <sheet name="4" sheetId="5" r:id="rId4"/>
+    <sheet name="5" sheetId="3" r:id="rId5"/>
+    <sheet name="6" sheetId="4" r:id="rId6"/>
+    <sheet name="7" sheetId="2" r:id="rId7"/>
+    <sheet name="8" sheetId="6" r:id="rId8"/>
+    <sheet name="9" sheetId="7" r:id="rId9"/>
+    <sheet name="10" sheetId="8" r:id="rId10"/>
+    <sheet name="11" sheetId="9" r:id="rId11"/>
+    <sheet name="12" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="41">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -301,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -370,6 +372,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,37 +677,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -745,9 +750,7 @@
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
-        <v>304355</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -789,9 +792,7 @@
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
-        <v>562.5</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -830,37 +831,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -871,20 +872,20 @@
         <v>38</v>
       </c>
       <c r="C16" s="22">
-        <v>43838</v>
+        <v>43992</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.1</v>
+        <v>10.395</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -892,10 +893,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="E17" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" s="19">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
@@ -904,10 +905,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="19">
-        <v>2.7</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>4.805</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -916,10 +917,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.2</v>
+        <v>24</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>2.19</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -928,11 +929,9 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="E20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2.8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -940,11 +939,9 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1.4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -952,7 +949,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -961,9 +958,6 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="E23" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -971,9 +965,6 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="E24" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -981,9 +972,6 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="E25" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -991,9 +979,6 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
@@ -1001,9 +986,6 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
@@ -1484,20 +1466,868 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>303729</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14">
+        <v>431.66</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="22">
+        <v>43381</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="19">
+        <v>30.2</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <f>SUM(F16:F100)</f>
+        <v>51.989</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="E17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="E18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="E19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="E22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="E23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="E24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="E27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="E28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="E29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="20"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="20"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="20"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="20"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="20"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="20"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="20"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="20"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="20"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="20"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="20"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="20"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="20"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="20"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="20"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="20"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="20"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="20"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="20"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="20"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="20"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="20"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="20"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="20"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="20"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="20"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="20"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="20"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="20"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="20"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="20"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="20"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="20"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="20"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="20"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="20"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="20"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="20"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="20"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="20"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="20"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="20"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D84" s="20"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="20"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="20"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="20"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="20"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="20"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="20"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="20"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="20"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="20"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="20"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="20"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="20"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="20"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="20"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="20"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="20"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
@@ -1507,28 +2337,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -1575,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303970</v>
+        <v>303426</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1661,37 +2491,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1713,9 +2543,9 @@
       <c r="F16" s="19">
         <v>30.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>51.989</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1809,7 +2639,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1819,7 +2651,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1829,7 +2663,858 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="E27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="E28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="E29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="20"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="20"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="20"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="20"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="20"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="20"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="20"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="20"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="20"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="20"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="20"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D53" s="20"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="20"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" s="20"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="20"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" s="20"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="20"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="20"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="20"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="20"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="20"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="20"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="20"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D65" s="20"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D66" s="20"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="20"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="20"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="20"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="20"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="20"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="20"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="20"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="20"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="20"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="20"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="20"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D78" s="20"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="20"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D80" s="20"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="20"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="20"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="20"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D84" s="20"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="20"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="20"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D87" s="20"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="20"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D89" s="20"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D90" s="20"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="20"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" s="20"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" s="20"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D94" s="20"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D95" s="20"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="20"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="20"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D98" s="20"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D99" s="20"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="20"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>303970</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14">
+        <v>431.66</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="22">
+        <v>43381</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="19">
+        <v>30.2</v>
+      </c>
+      <c r="G16" s="19" t="n">
+        <f>SUM(F16:F100)</f>
+        <v>51.989</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1"/>
+      <c r="E17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="E18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="E19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="E22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="E23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="E24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2345,36 +4030,36 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2417,9 +4102,7 @@
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
-        <v>409774</v>
-      </c>
+      <c r="B6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2461,9 +4144,7 @@
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
-        <v>562.5</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2502,37 +4183,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,20 +4224,20 @@
         <v>38</v>
       </c>
       <c r="C16" s="22">
-        <v>43838</v>
+        <v>43992</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.1</v>
+        <v>10.395</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2564,10 +4245,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="E17" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" s="19">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
@@ -2576,10 +4257,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="19">
-        <v>2.7</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>4.805</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -2588,10 +4269,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.2</v>
+        <v>24</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>2.19</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -2600,11 +4281,9 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="E20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2.8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -2612,11 +4291,9 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1.4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -2624,7 +4301,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -2633,9 +4310,6 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="E23" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -2643,9 +4317,6 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="E24" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -2653,9 +4324,6 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="E25" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -2663,9 +4331,6 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="E26" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
@@ -2673,9 +4338,6 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="E27" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
@@ -3165,7 +4827,6 @@
     <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3173,37 +4834,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3225,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3247,7 +4908,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>301407</v>
+        <v>304355</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3291,7 +4952,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14">
-        <v>466.65</v>
+        <v>562.5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3331,37 +4992,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3372,20 +5033,20 @@
         <v>38</v>
       </c>
       <c r="C16" s="22">
-        <v>43595</v>
+        <v>43838</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>36</v>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="19">
-        <v>13.8</v>
-      </c>
-      <c r="G16" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>26.2</v>
+        <v>18.489</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3393,10 +5054,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="E17" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="19">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
@@ -3405,10 +5066,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="19">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -3417,10 +5078,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F19" s="19">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -3429,10 +5090,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="E20" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20" s="19">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
@@ -3441,10 +5102,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="19">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
@@ -3453,10 +5114,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="19">
-        <v>2.8</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
@@ -3465,10 +5126,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1.4</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>4.805</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -3477,9 +5138,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3487,7 +5150,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -3497,7 +5160,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -3507,7 +5170,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -3516,20 +5179,12 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -3997,13 +5652,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4015,33 +5670,33 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -4088,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303191</v>
+        <v>409774</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4099,9 +5754,7 @@
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
-        <v>18</v>
-      </c>
+      <c r="B7" s="14"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4134,7 +5787,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14">
-        <v>431.66</v>
+        <v>562.5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4174,37 +5827,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4215,20 +5868,20 @@
         <v>38</v>
       </c>
       <c r="C16" s="22">
-        <v>43381</v>
+        <v>43838</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>36</v>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="19">
-        <v>30.2</v>
-      </c>
-      <c r="G16" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>18.489</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4236,10 +5889,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="E17" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="19">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="1"/>
@@ -4248,10 +5901,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="E18" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="19">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -4260,10 +5913,10 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="E19" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F19" s="19">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="1"/>
@@ -4272,10 +5925,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="E20" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F20" s="19">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
@@ -4284,10 +5937,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="E21" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" s="19">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
@@ -4296,10 +5949,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="E22" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="19">
-        <v>2.8</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
@@ -4308,10 +5961,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="E23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1.4</v>
+        <v>23</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>4.805</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -4320,9 +5973,11 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="E24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4330,7 +5985,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="E25" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -4340,7 +5995,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="E26" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -4350,7 +6005,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="E27" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -4359,20 +6014,12 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="E29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -4863,28 +6510,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -4909,7 +6556,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4931,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303978</v>
+        <v>301407</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4942,9 +6589,7 @@
       <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
-        <v>18</v>
-      </c>
+      <c r="B7" s="14"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4977,7 +6622,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="14">
-        <v>431.66</v>
+        <v>466.65</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5017,37 +6662,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5058,7 +6703,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="22">
-        <v>43381</v>
+        <v>43595</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
@@ -5067,11 +6712,11 @@
         <v>36</v>
       </c>
       <c r="F16" s="19">
-        <v>30.2</v>
-      </c>
-      <c r="G16" s="19">
+        <v>13.8</v>
+      </c>
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>35.589</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5165,7 +6810,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5175,7 +6822,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5185,7 +6834,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5706,28 +7357,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -5774,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303962</v>
+        <v>303191</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5860,37 +7511,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5912,9 +7563,9 @@
       <c r="F16" s="19">
         <v>30.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>51.989</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6008,7 +7659,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6018,7 +7671,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6028,7 +7683,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6549,28 +8206,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -6617,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303971</v>
+        <v>303978</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6703,37 +8360,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6755,9 +8412,9 @@
       <c r="F16" s="19">
         <v>30.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>51.989</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6851,7 +8508,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6861,7 +8520,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6871,7 +8532,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7392,28 +9055,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -7460,7 +9123,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303729</v>
+        <v>303962</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7546,37 +9209,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7598,9 +9261,9 @@
       <c r="F16" s="19">
         <v>30.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>51.989</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7694,7 +9357,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7704,7 +9369,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7714,7 +9381,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8235,28 +9904,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -8303,7 +9972,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14">
-        <v>303426</v>
+        <v>303971</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8389,37 +10058,37 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8441,9 +10110,9 @@
       <c r="F16" s="19">
         <v>30.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>42.6</v>
+        <v>51.989</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8537,7 +10206,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19">
+        <v>2.3940000000000001</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8547,7 +10218,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>4.805</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8557,7 +10230,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2.19</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>

--- a/resources/wheels/223 - Соловей.xlsx
+++ b/resources/wheels/223 - Соловей.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="53">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>NF 201</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -885,7 +921,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>10.395</v>
+        <v>12.949</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -907,8 +943,8 @@
       <c r="E18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="19" t="n">
-        <v>4.805</v>
+      <c r="F18" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -919,7 +955,7 @@
       <c r="E19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="19">
         <v>2.19</v>
       </c>
       <c r="G19" s="19"/>
@@ -931,7 +967,9 @@
       <c r="E20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -941,7 +979,9 @@
       <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -951,7 +991,9 @@
       <c r="E22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
     </row>
@@ -1696,7 +1738,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1802,8 +1844,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -1814,7 +1856,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -1826,7 +1868,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -1836,7 +1880,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -1846,7 +1892,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -2545,7 +2593,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2651,8 +2699,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -2663,7 +2711,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -2675,7 +2723,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -2685,7 +2735,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -2695,7 +2747,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -3394,7 +3448,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3500,8 +3554,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -3512,7 +3566,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -3524,7 +3578,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -3534,7 +3590,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -3544,7 +3602,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -4029,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4237,7 +4297,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>10.395</v>
+        <v>12.949</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4259,8 +4319,8 @@
       <c r="E18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="19" t="n">
-        <v>4.805</v>
+      <c r="F18" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="1"/>
@@ -4271,7 +4331,7 @@
       <c r="E19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="19">
         <v>2.19</v>
       </c>
       <c r="G19" s="19"/>
@@ -4283,7 +4343,9 @@
       <c r="E20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="1"/>
     </row>
@@ -4293,7 +4355,9 @@
       <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="1"/>
     </row>
@@ -4303,20 +4367,30 @@
       <c r="E22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
+      <c r="E24" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
@@ -4324,6 +4398,9 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
+      <c r="E25" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -4331,6 +4408,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="E26" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
@@ -4338,6 +4418,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
+      <c r="E27" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
@@ -4345,19 +4428,27 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="E28" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="E29" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="1"/>
@@ -4366,7 +4457,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="1"/>
@@ -4375,7 +4468,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1"/>
@@ -4384,7 +4479,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1"/>
@@ -4393,7 +4490,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="1"/>
@@ -5046,7 +5145,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>18.489</v>
+        <v>21.043</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5128,8 +5227,8 @@
       <c r="E23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="19" t="n">
-        <v>4.805</v>
+      <c r="F23" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -5140,7 +5239,7 @@
       <c r="E24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="19">
         <v>2.19</v>
       </c>
       <c r="G24" s="19"/>
@@ -5152,7 +5251,9 @@
       <c r="E25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5162,7 +5263,9 @@
       <c r="E26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5172,7 +5275,9 @@
       <c r="E27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -5881,7 +5986,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>18.489</v>
+        <v>21.043</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5963,8 +6068,8 @@
       <c r="E23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="19" t="n">
-        <v>4.805</v>
+      <c r="F23" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="1"/>
@@ -5975,7 +6080,7 @@
       <c r="E24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="19">
         <v>2.19</v>
       </c>
       <c r="G24" s="19"/>
@@ -5987,7 +6092,9 @@
       <c r="E25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5997,7 +6104,9 @@
       <c r="E26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6007,7 +6116,9 @@
       <c r="E27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6716,7 +6827,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>35.589</v>
+        <v>38.143</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6822,8 +6933,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -6834,7 +6945,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -6846,7 +6957,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -6856,7 +6969,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -6866,7 +6981,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -7565,7 +7682,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7671,8 +7788,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -7683,7 +7800,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -7695,7 +7812,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -7705,7 +7824,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -7715,7 +7836,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -8414,7 +8537,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8520,8 +8643,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -8532,7 +8655,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -8544,7 +8667,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -8554,7 +8679,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -8564,7 +8691,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -9263,7 +9392,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9369,8 +9498,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -9381,7 +9510,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -9393,7 +9522,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -9403,7 +9534,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -9413,7 +9546,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
@@ -10112,7 +10247,7 @@
       </c>
       <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>51.989</v>
+        <v>54.543</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -10218,8 +10353,8 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="n">
-        <v>4.805</v>
+      <c r="F25" s="19">
+        <v>4.8049999999999997</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
@@ -10230,7 +10365,7 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="n">
+      <c r="F26" s="19">
         <v>2.19</v>
       </c>
       <c r="G26" s="19"/>
@@ -10242,7 +10377,9 @@
       <c r="E27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19">
+        <v>2.5539999999999998</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="1"/>
     </row>
@@ -10252,7 +10389,9 @@
       <c r="E28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="1"/>
     </row>
@@ -10262,7 +10401,9 @@
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="1"/>
     </row>
